--- a/biorefineries/cane/results/expenditures.xlsx
+++ b/biorefineries/cane/results/expenditures.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,220 +486,220 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>FGD lime</t>
+          <t>HCl</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>199</v>
+        <v>71.8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000388</v>
+        <v>0.00011</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0566</v>
+        <v>0.00011</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0566</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>HCl</t>
+          <t>NaOCl</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>71.8</v>
+        <v>140</v>
       </c>
       <c r="D3" t="n">
-        <v>0.000122</v>
+        <v>0.00187</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000122</v>
+        <v>0.00229</v>
       </c>
       <c r="F3" t="n">
-        <v>0.000122</v>
+        <v>0.00231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>NaOCl</t>
+          <t>NaOH</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>140</v>
+        <v>410</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00118</v>
+        <v>7.059999999999999e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00196</v>
+        <v>7.059999999999999e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00198</v>
+        <v>7.059999999999999e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>NaOH</t>
+          <t>Biodiesel wash water</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>410</v>
+        <v>0.353</v>
       </c>
       <c r="D5" t="n">
-        <v>7.839999999999999e-05</v>
+        <v>0.000401</v>
       </c>
       <c r="E5" t="n">
-        <v>7.839999999999999e-05</v>
+        <v>0.000599</v>
       </c>
       <c r="F5" t="n">
-        <v>7.839999999999999e-05</v>
+        <v>0.000428</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Biodiesel wash water</t>
+          <t>Bisulfite</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.353</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.000546</v>
+        <v>0.000171</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000874</v>
+        <v>0.000209</v>
       </c>
       <c r="F6" t="n">
-        <v>0.000625</v>
+        <v>0.00021</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Bisulfite</t>
+          <t>Boiler chemicals</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>79.90000000000001</v>
+        <v>5000</v>
       </c>
       <c r="D7" t="n">
-        <v>0.000108</v>
+        <v>0.0207</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000178</v>
+        <v>0.0174</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00018</v>
+        <v>0.0183</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Boiler chemicals</t>
+          <t>Catalyst</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5000</v>
+        <v>2930</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0206</v>
+        <v>0.0127</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0166</v>
+        <v>0.0127</v>
       </c>
       <c r="F8" t="n">
-        <v>0.018</v>
+        <v>0.0127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t>Cellulase</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2930</v>
+        <v>212</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0141</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0141</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0141</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Cellulase</t>
+          <t>Citric acid</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>212</v>
+        <v>337</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.00189</v>
       </c>
       <c r="E10" t="n">
-        <v>8.460000000000001</v>
+        <v>0.00231</v>
       </c>
       <c r="F10" t="n">
-        <v>8.460000000000001</v>
+        <v>0.00233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Citric acid</t>
+          <t>Cooling tower chemicals</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>337</v>
+        <v>3000</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00119</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00197</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower chemicals</t>
+          <t>Flue gas desulfurization lime</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3000</v>
+        <v>199</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.000303</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.0566</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.0566</v>
       </c>
     </row>
     <row r="13">
@@ -733,13 +733,13 @@
         <v>547</v>
       </c>
       <c r="D14" t="n">
-        <v>0.08409999999999999</v>
+        <v>0.0757</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08409999999999999</v>
+        <v>0.0757</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08409999999999999</v>
+        <v>0.0757</v>
       </c>
     </row>
     <row r="15">
@@ -773,47 +773,43 @@
         <v>650</v>
       </c>
       <c r="D16" t="n">
-        <v>2.04</v>
+        <v>1.5</v>
       </c>
       <c r="E16" t="n">
-        <v>3.27</v>
+        <v>2.24</v>
       </c>
       <c r="F16" t="n">
-        <v>2.33</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Heating utilities</t>
+          <t>Other utilities &amp; fees</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Low pressure steam</t>
+          <t>Electricity production</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.30626 USD/kmol</t>
+          <t>0.07004769947869212 $/kWh</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>57.6</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0877</v>
+        <v>19.2</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0334</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Other utilities</t>
-        </is>
-      </c>
+      <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="inlineStr">
         <is>
           <t>Process water</t>
@@ -823,210 +819,169 @@
         <v>0.27</v>
       </c>
       <c r="D18" t="n">
-        <v>0.000108</v>
+        <v>0.2</v>
       </c>
       <c r="E18" t="n">
-        <v>0.000184</v>
+        <v>0.374</v>
       </c>
       <c r="F18" t="n">
-        <v>0.000195</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>By-products and credits</t>
+          <t>Co-products &amp; credits</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Biodiesel</t>
+          <t>Crude glycerol</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>856</v>
+        <v>160</v>
       </c>
       <c r="D19" t="n">
-        <v>25.5</v>
+        <v>0.908</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Crude glycerol</t>
+          <t>Ash disposal</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>160</v>
+        <v>-31.8</v>
       </c>
       <c r="D20" t="n">
-        <v>1.24</v>
+        <v>-0.325</v>
       </c>
       <c r="E20" t="n">
-        <v>1.98</v>
+        <v>-0.326</v>
       </c>
       <c r="F20" t="n">
-        <v>1.42</v>
+        <v>-0.326</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Ash disposal</t>
+          <t>Biodiesel RIN D3</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-31.8</v>
+        <v>916</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.000292</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.000294</v>
+        <v>2.41</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.000294</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Biodiesel RIN D3</t>
+          <t>Biodiesel RIN D4</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>916</v>
+        <v>353</v>
       </c>
       <c r="D22" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Variable operating cost</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr"/>
+      <c r="C23" t="n">
         <v>0</v>
       </c>
-      <c r="E22" t="n">
-        <v>0.00358</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.00256</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>Biodiesel RIN D4</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>353</v>
-      </c>
       <c r="D23" t="n">
-        <v>0.00219</v>
+        <v>114</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00212</v>
+        <v>83.5</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00152</v>
+        <v>87.8</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n"/>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Products</t>
+        </is>
+      </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Electricity production</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0.07004769947869212 $/kWh</t>
-        </is>
+          <t>Cellulosic based diesel</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>856</v>
       </c>
       <c r="D24" t="n">
-        <v>60.2</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>40.2</v>
+        <v>9.75</v>
       </c>
       <c r="F24" t="n">
-        <v>46.7</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Variable operating cost</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="inlineStr"/>
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>Biomass based diesel</t>
+        </is>
+      </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>856</v>
       </c>
       <c r="D25" t="n">
-        <v>24.8</v>
+        <v>18.7</v>
       </c>
       <c r="E25" t="n">
-        <v>29.9</v>
+        <v>18.2</v>
       </c>
       <c r="F25" t="n">
-        <v>21.9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Products</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>Cellulosic based diesel</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>856</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>Biomass based diesel</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>856</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="F27" t="n">
-        <v>17.7</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A24:A25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1125,13 +1080,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.94</v>
+        <v>6.12</v>
       </c>
       <c r="D4" t="n">
-        <v>9.35</v>
+        <v>10.5</v>
       </c>
       <c r="E4" t="n">
-        <v>9.890000000000001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -1146,13 +1101,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.15</v>
+        <v>1.43</v>
       </c>
       <c r="D5" t="n">
-        <v>2.18</v>
+        <v>2.45</v>
       </c>
       <c r="E5" t="n">
-        <v>2.31</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="6">
@@ -1163,13 +1118,13 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>10.8</v>
+        <v>12.3</v>
       </c>
       <c r="D6" t="n">
-        <v>16.3</v>
+        <v>17.7</v>
       </c>
       <c r="E6" t="n">
-        <v>17</v>
+        <v>18.3</v>
       </c>
     </row>
   </sheetData>
@@ -1228,13 +1183,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="D2" t="n">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="E2" t="n">
-        <v>330</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3">
@@ -1249,10 +1204,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D3" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E3" t="n">
         <v>132</v>
@@ -1270,13 +1225,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6.59</v>
+        <v>8.16</v>
       </c>
       <c r="D4" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>13.2</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="5">
@@ -1291,13 +1246,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14.8</v>
+        <v>18.4</v>
       </c>
       <c r="D5" t="n">
-        <v>28</v>
+        <v>31.5</v>
       </c>
       <c r="E5" t="n">
-        <v>29.7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -1312,13 +1267,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7.41</v>
+        <v>9.18</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>15.8</v>
       </c>
       <c r="E6" t="n">
-        <v>14.8</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="7">
@@ -1333,13 +1288,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>332</v>
+        <v>388</v>
       </c>
       <c r="D7" t="n">
-        <v>492</v>
+        <v>538</v>
       </c>
       <c r="E7" t="n">
-        <v>520</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8">
@@ -1354,13 +1309,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>33.2</v>
+        <v>38.8</v>
       </c>
       <c r="D8" t="n">
-        <v>49.2</v>
+        <v>53.8</v>
       </c>
       <c r="E8" t="n">
-        <v>52</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="9">
@@ -1375,13 +1330,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>33.2</v>
+        <v>38.8</v>
       </c>
       <c r="D9" t="n">
-        <v>49.2</v>
+        <v>53.8</v>
       </c>
       <c r="E9" t="n">
-        <v>52</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="10">
@@ -1396,13 +1351,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>66.5</v>
+        <v>77.7</v>
       </c>
       <c r="D10" t="n">
-        <v>98.3</v>
+        <v>108</v>
       </c>
       <c r="E10" t="n">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
@@ -1417,13 +1372,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>33.2</v>
+        <v>38.8</v>
       </c>
       <c r="D11" t="n">
-        <v>49.2</v>
+        <v>53.8</v>
       </c>
       <c r="E11" t="n">
-        <v>52</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="12">
@@ -1438,13 +1393,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>33.2</v>
+        <v>38.8</v>
       </c>
       <c r="D12" t="n">
-        <v>49.2</v>
+        <v>53.8</v>
       </c>
       <c r="E12" t="n">
-        <v>52</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="13">
@@ -1459,13 +1414,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="D13" t="n">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="E13" t="n">
-        <v>312</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14">
@@ -1480,13 +1435,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>532</v>
+        <v>621</v>
       </c>
       <c r="D14" t="n">
-        <v>787</v>
+        <v>861</v>
       </c>
       <c r="E14" t="n">
-        <v>832</v>
+        <v>900</v>
       </c>
     </row>
     <row r="15">
@@ -1501,13 +1456,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>26.6</v>
+        <v>31.1</v>
       </c>
       <c r="D15" t="n">
-        <v>39.3</v>
+        <v>43</v>
       </c>
       <c r="E15" t="n">
-        <v>41.6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
@@ -1522,13 +1477,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>558</v>
+        <v>652</v>
       </c>
       <c r="D16" t="n">
-        <v>826</v>
+        <v>904</v>
       </c>
       <c r="E16" t="n">
-        <v>873</v>
+        <v>945</v>
       </c>
     </row>
   </sheetData>
